--- a/manualTests/Pairwise.xlsx
+++ b/manualTests/Pairwise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\QA_Auto_Test\manualTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD6DDEC-F398-45D7-8D2E-9530327E6D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF948C-0824-4D73-8C83-B7146075FFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,10 +536,10 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
